--- a/data_excel/554.xlsx
+++ b/data_excel/554.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -117,15 +117,15 @@
     <t>的</t>
   </si>
   <si>
-    <t>-</t>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equal</t>
   </si>
 </sst>
 </file>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -592,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -703,7 +703,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">

--- a/data_excel/554.xlsx
+++ b/data_excel/554.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>阿崴</t>
   </si>
@@ -125,6 +125,14 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +161,13 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -191,9 +206,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -499,12 +515,12 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -537,8 +553,8 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -588,8 +604,8 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -724,8 +740,8 @@
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>34</v>
